--- a/X2110-Camera/100x/beads-6/center-sigma-green-5.xlsx
+++ b/X2110-Camera/100x/beads-6/center-sigma-green-5.xlsx
@@ -15,12 +15,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>centers</t>
   </si>
   <si>
     <t>sigmas</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>589.0804626270364</t>
+  </si>
+  <si>
+    <t>16.59078517060218</t>
+  </si>
+  <si>
+    <t>lorentzian</t>
+  </si>
+  <si>
+    <t>590.3215411282541</t>
+  </si>
+  <si>
+    <t>22.04750045153666</t>
+  </si>
+  <si>
+    <t>587.0794956841607</t>
+  </si>
+  <si>
+    <t>20.432815968077215</t>
+  </si>
+  <si>
+    <t>587.6397721021245</t>
+  </si>
+  <si>
+    <t>19.522961422094134</t>
+  </si>
+  <si>
+    <t>584.6736011532843</t>
+  </si>
+  <si>
+    <t>24.862970093436694</t>
+  </si>
+  <si>
+    <t>582.8119655993378</t>
+  </si>
+  <si>
+    <t>25.064423076262877</t>
   </si>
 </sst>
 </file>
@@ -369,7 +411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,78 +419,99 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>589.0804626270364</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16.59078517060218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>590.3215411282541</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22.04750045153666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>587.0794956841607</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20.43281596807721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>587.6397721021245</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.52296142209413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>584.6736011532843</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24.86297009343669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>582.8119655993378</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25.06442307626288</v>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
